--- a/pesantren/tahfidz/laporan tahfidz/2023/september.xlsx
+++ b/pesantren/tahfidz/laporan tahfidz/2023/september.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\zen\pesantren\tahfidz\laporan tahfidz\2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7985B338-5708-4F6D-A43F-A72F5597F9B4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C6292B9-9496-4132-9030-B53886A7EB81}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="71">
   <si>
     <t>Persiapan Juziyah</t>
   </si>
@@ -162,9 +162,6 @@
     <t>6 juz (kurang 4 juz)</t>
   </si>
   <si>
-    <t>Setoran Hapalan Terakhir</t>
-  </si>
-  <si>
     <t>Juz 7, 2B</t>
   </si>
   <si>
@@ -202,6 +199,48 @@
   </si>
   <si>
     <t>7 juz (kurang 3 juz)</t>
+  </si>
+  <si>
+    <t>Juz 1, 3A</t>
+  </si>
+  <si>
+    <t>Juz 7, 3A</t>
+  </si>
+  <si>
+    <t>1 halaman</t>
+  </si>
+  <si>
+    <t>Healing</t>
+  </si>
+  <si>
+    <t>0 kali</t>
+  </si>
+  <si>
+    <t>6 juz (kurang 3 juz)</t>
+  </si>
+  <si>
+    <t>Juz 1, 7A</t>
+  </si>
+  <si>
+    <t>Juz 9, 10B</t>
+  </si>
+  <si>
+    <t>0 halaman</t>
+  </si>
+  <si>
+    <t>32 halaman</t>
+  </si>
+  <si>
+    <t>1 kali</t>
+  </si>
+  <si>
+    <t>21 halaman</t>
+  </si>
+  <si>
+    <t>Juz 4, 4B</t>
+  </si>
+  <si>
+    <t>3 juz (kurang 2 juz)</t>
   </si>
 </sst>
 </file>
@@ -877,14 +916,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9790D4E2-B302-40D4-AFF0-41C8195A92AF}">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.28515625" bestFit="1" customWidth="1"/>
@@ -892,7 +931,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
@@ -920,7 +959,7 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C3" t="s">
         <v>19</v>
@@ -929,7 +968,7 @@
         <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -937,16 +976,16 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" t="s">
         <v>47</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>48</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>49</v>
-      </c>
-      <c r="E4" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -954,7 +993,7 @@
         <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -965,7 +1004,7 @@
         <v>14</v>
       </c>
       <c r="E6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F6" t="s">
         <v>15</v>
@@ -976,13 +1015,13 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" t="s">
         <v>53</v>
       </c>
-      <c r="C7" t="s">
-        <v>54</v>
-      </c>
       <c r="D7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E7" t="s">
         <v>18</v>
@@ -1004,16 +1043,16 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" t="s">
         <v>55</v>
-      </c>
-      <c r="C9" t="s">
-        <v>56</v>
       </c>
       <c r="D9" t="s">
         <v>14</v>
       </c>
       <c r="E9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F9" t="s">
         <v>15</v>
@@ -1036,8 +1075,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1071,45 +1110,159 @@
       <c r="A2" t="s">
         <v>5</v>
       </c>
+      <c r="B2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
+      <c r="B3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F3" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
+      <c r="B4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
+      <c r="F5" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
+      <c r="B6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F6" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
+      <c r="B7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D7" t="s">
+        <v>67</v>
+      </c>
+      <c r="E7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
+      <c r="B8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>12</v>
       </c>
+      <c r="B9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/pesantren/tahfidz/laporan tahfidz/2023/september.xlsx
+++ b/pesantren/tahfidz/laporan tahfidz/2023/september.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20402"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\zen\pesantren\tahfidz\laporan tahfidz\2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ZEN-PROJECT\zen\pesantren\tahfidz\laporan tahfidz\2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C6292B9-9496-4132-9030-B53886A7EB81}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36D95C1F-AB2A-479D-A760-404D4202A35C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11310" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2" sheetId="2" r:id="rId1"/>
@@ -264,12 +264,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -284,9 +290,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1076,7 +1083,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1175,7 +1182,7 @@
       <c r="B6" t="s">
         <v>64</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="2" t="s">
         <v>65</v>
       </c>
       <c r="D6" t="s">
@@ -1195,7 +1202,7 @@
       <c r="B7" t="s">
         <v>30</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="2" t="s">
         <v>66</v>
       </c>
       <c r="D7" t="s">
@@ -1215,7 +1222,7 @@
       <c r="B8" t="s">
         <v>30</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="2" t="s">
         <v>68</v>
       </c>
       <c r="D8" t="s">
@@ -1235,7 +1242,7 @@
       <c r="B9" t="s">
         <v>64</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D9" t="s">
